--- a/data/trans_camb/P16A12-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A12-Habitat-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para la diabetes en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A12-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A12-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>3.437442923965792</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3.26327244544054</v>
+        <v>3.263272445440538</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2.107336512107485</v>
@@ -655,7 +655,7 @@
         <v>3.838296924144673</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>4.202108652697539</v>
+        <v>4.202108652697537</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1.382801203971642</v>
@@ -664,7 +664,7 @@
         <v>3.636259190938306</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>3.723733803519705</v>
+        <v>3.723733803519706</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.996361446600232</v>
+        <v>-1.941679442962527</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7178399738672537</v>
+        <v>0.526211624443923</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8000626711788944</v>
+        <v>0.4202514420074265</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.4484980618570525</v>
+        <v>-0.4344190243151373</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.066356464864298</v>
+        <v>1.326402615643945</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.022199487472272</v>
+        <v>1.79563516095648</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.4732591743144586</v>
+        <v>-0.3663181041865599</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.724854172895054</v>
+        <v>1.72643151488254</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.111315831023028</v>
+        <v>1.944147605168635</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.42454844692479</v>
+        <v>3.340469576116551</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.386300048196587</v>
+        <v>6.200733479219368</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.072571792072356</v>
+        <v>5.793511448685908</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.634996350047945</v>
+        <v>4.30914999211809</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.918433892980623</v>
+        <v>6.869004087902872</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.239218378271463</v>
+        <v>6.31118429403526</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.308611738238884</v>
+        <v>3.280185719869656</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.644676524441271</v>
+        <v>5.796040975844527</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.422904079369991</v>
+        <v>5.609901436486356</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.5476894909955512</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.5199388220128374</v>
+        <v>0.5199388220128369</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.4307594528901861</v>
@@ -760,7 +760,7 @@
         <v>0.7845840821222922</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8589506297743038</v>
+        <v>0.8589506297743036</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.2475242408042602</v>
@@ -769,7 +769,7 @@
         <v>0.6508978246615523</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.666555959038836</v>
+        <v>0.6665559590388362</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2733571744350586</v>
+        <v>-0.2504121616735678</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.08782050885301187</v>
+        <v>0.0750648569216614</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.08405312829441938</v>
+        <v>0.06028911708225494</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.07467596284570086</v>
+        <v>-0.08026850475830628</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1640046209257258</v>
+        <v>0.2048094939064408</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3165281469406281</v>
+        <v>0.2725942741272734</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.07639074360394321</v>
+        <v>-0.05459755854153394</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2598471267017227</v>
+        <v>0.2697565850778831</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3142658635244214</v>
+        <v>0.2887314233100901</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.6718845523332228</v>
+        <v>0.7049515316102193</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.231457326226139</v>
+        <v>1.285862183145075</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.146112580118651</v>
+        <v>1.195006107195391</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.299226430730539</v>
+        <v>1.138163765672259</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.779298086022677</v>
+        <v>1.78281871343538</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.715549388792249</v>
+        <v>1.774046239983266</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7013084505619968</v>
+        <v>0.7364261480479062</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.21713547340703</v>
+        <v>1.238500033432973</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.163838578618245</v>
+        <v>1.227553514192085</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>1.725468438646582</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2.105232255184992</v>
+        <v>2.10523225518499</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.4571148941751715</v>
@@ -869,7 +869,7 @@
         <v>0.01104339520278802</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.001634720424896485</v>
+        <v>0.001634720424897873</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.3799673695720054</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.901010570010825</v>
+        <v>-1.752957177193113</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.5771778439921048</v>
+        <v>-0.4784299069753508</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.3659869063107586</v>
+        <v>0.1124729279074984</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.751286287552519</v>
+        <v>-2.098267506608014</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.503454061104025</v>
+        <v>-2.307740312922744</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.155635383058194</v>
+        <v>-2.210019717932834</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.417711603752188</v>
+        <v>-1.133427746667721</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.801090151682098</v>
+        <v>-0.8004877778202371</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.5749492941979271</v>
+        <v>-0.6389457576681211</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.589482336655935</v>
+        <v>2.539753805839286</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.935041487072646</v>
+        <v>4.059527670558746</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.250038520034046</v>
+        <v>4.318029648147245</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.949219256833735</v>
+        <v>3.216847878148422</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.510531184451801</v>
+        <v>2.25544139839793</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.093755678312246</v>
+        <v>1.932296976026853</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.934897828521621</v>
+        <v>2.175335705437925</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.44930003686591</v>
+        <v>2.553184754771524</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.582742303293423</v>
+        <v>2.454141717902741</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.2809628480084513</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.3428008515762728</v>
+        <v>0.3428008515762725</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.06059276733899255</v>
@@ -974,7 +974,7 @@
         <v>0.001463854896617425</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0002166900173943881</v>
+        <v>0.000216690017394572</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.0555097571427685</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2616979687336877</v>
+        <v>-0.2581639012131912</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.0709565156255231</v>
+        <v>-0.07008541259121473</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.0379919407453966</v>
+        <v>0.004444983833700884</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2059950507359443</v>
+        <v>-0.2371803843543641</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2835057974863932</v>
+        <v>-0.2635436892390302</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2499472473378412</v>
+        <v>-0.2522849128602438</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1870438575807244</v>
+        <v>-0.1513641422751575</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1034595659253858</v>
+        <v>-0.1066178756182462</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.07445172853981261</v>
+        <v>-0.07965884158350589</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5132544536615963</v>
+        <v>0.5014708139758034</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.7698472825731555</v>
+        <v>0.8136340408682569</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.88233298398967</v>
+        <v>0.8413288884029293</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4648314537472303</v>
+        <v>0.503736184569451</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4040792795089718</v>
+        <v>0.3609016454123565</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3515409670465555</v>
+        <v>0.3172196052260221</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3142894248182757</v>
+        <v>0.3782624451154651</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.425899845466956</v>
+        <v>0.4274936271152414</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4241060085305326</v>
+        <v>0.4044097687874459</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>1.852866041220918</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.1005402802317472</v>
+        <v>-0.1005402802317479</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>2.19355317686842</v>
@@ -1092,7 +1092,7 @@
         <v>3.205711279456699</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.556079738939715</v>
+        <v>1.556079738939716</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.502290403337913</v>
+        <v>-0.5199922425949337</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.953660641235926</v>
+        <v>1.89828305401163</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.966416310196436</v>
+        <v>0.7924729920830181</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07762855669355309</v>
+        <v>0.1282541322868431</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.6861617203858744</v>
+        <v>-0.5646268542828699</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.382385518289008</v>
+        <v>-2.48847680139601</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3408211171938152</v>
+        <v>0.3989121877336096</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.333064062528766</v>
+        <v>1.445055809802772</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.1653030895089282</v>
+        <v>-0.09812557052905288</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.282956271608918</v>
+        <v>4.23469069159226</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.441962010854472</v>
+        <v>7.217440873405866</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.756879635351229</v>
+        <v>5.618630724542566</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.364322142976141</v>
+        <v>5.465919382976897</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.724497194710843</v>
+        <v>4.572745785411008</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.921348026894939</v>
+        <v>2.046870321776378</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.897531382082644</v>
+        <v>4.047302531241759</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.895394104496007</v>
+        <v>5.163634350457265</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.167358806436615</v>
+        <v>3.185707440858224</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.3106963895112848</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.01685901806904139</v>
+        <v>-0.01685901806904151</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.4156928270558237</v>
@@ -1197,7 +1197,7 @@
         <v>0.6075034781625592</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.2948873966792095</v>
+        <v>0.2948873966792098</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.09805604641778881</v>
+        <v>-0.0969179080463206</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.32104915958372</v>
+        <v>0.264203449670155</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1598323982730901</v>
+        <v>0.1309160920617976</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.0007924306634698576</v>
+        <v>0.005313022272171846</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1198597671950038</v>
+        <v>-0.09036780184737125</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3205504526487692</v>
+        <v>-0.3278014386802164</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04896330122755009</v>
+        <v>0.06323035220846769</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2191437921022142</v>
+        <v>0.2260515754584511</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.03268277919262798</v>
+        <v>-0.01821111438370182</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.221946888660458</v>
+        <v>1.232098737037164</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.144162464859824</v>
+        <v>1.993076494697237</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.650459543288394</v>
+        <v>1.551381763441696</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.140633988165498</v>
+        <v>1.157115677997989</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.982595352765348</v>
+        <v>0.9903488932488765</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4198019450471843</v>
+        <v>0.4397400478436385</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8857578731022373</v>
+        <v>0.9123597614993828</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.107772319079141</v>
+        <v>1.171911734715859</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.7179616569582162</v>
+        <v>0.7118462022605322</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>2.017469675385671</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.801670847827679</v>
+        <v>1.801670847827682</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>4.146351405896902</v>
@@ -1306,7 +1306,7 @@
         <v>2.025198043363258</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.818433854344892</v>
+        <v>2.818433854344894</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.810593014249323</v>
+        <v>1.641635079345869</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02233448986675316</v>
+        <v>0.1921914768003602</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.961104543041354</v>
+        <v>1.935711742169615</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.031775413782483</v>
+        <v>1.889428857658984</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.1823838728875372</v>
+        <v>-0.1047736064969818</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.08912794669408362</v>
+        <v>-0.07837184960896323</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.358384346927119</v>
+        <v>2.630311024606537</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5752479429916224</v>
+        <v>0.5991474578564145</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.382270719308596</v>
+        <v>1.303108866242931</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.513700303025256</v>
+        <v>6.357362962281295</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.279476137677944</v>
+        <v>4.270832551144521</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.262653302049416</v>
+        <v>6.277416622413487</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.7931653350831</v>
+        <v>6.664512594538776</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.516953561680397</v>
+        <v>4.489692030888874</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.593779612061478</v>
+        <v>3.787081874198893</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.902442680091536</v>
+        <v>6.26845483281802</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.695544509599597</v>
+        <v>3.711260092649189</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.147618975388725</v>
+        <v>4.224845745375104</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.3631319581599237</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.324289515185028</v>
+        <v>0.3242895151850285</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.7671444184906412</v>
@@ -1411,7 +1411,7 @@
         <v>0.3746955390936591</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.5214574426014074</v>
+        <v>0.5214574426014076</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2715625797512112</v>
+        <v>0.2589627075593854</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.001546374501284949</v>
+        <v>0.02638923135628371</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.296192354520166</v>
+        <v>0.2945885631457378</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2864256002037037</v>
+        <v>0.2624788185442502</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.03326829195213774</v>
+        <v>-0.01979704045762724</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.01279411021960551</v>
+        <v>-0.01553594852833449</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3927466227868365</v>
+        <v>0.4277048969800906</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1022296378500387</v>
+        <v>0.0947596040156546</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2265402743580494</v>
+        <v>0.1995340023847327</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.427595260573763</v>
+        <v>1.474266011555163</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.9622563014368023</v>
+        <v>0.9938851013010589</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.416928513981454</v>
+        <v>1.454083158147559</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.438079279205805</v>
+        <v>1.453667902131714</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.008166084824647</v>
+        <v>0.9903799734046698</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7992564043760475</v>
+        <v>0.8422770646871829</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.265313210230164</v>
+        <v>1.290929941886958</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.8045288492514727</v>
+        <v>0.784068589370324</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.8965115498558768</v>
+        <v>0.9032702127406599</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>2.261561510021494</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>2.196853052965689</v>
+        <v>2.19685305296569</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.4744844673662046</v>
+        <v>0.5183138881338702</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.543066755599384</v>
+        <v>1.435287809432076</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.032154691772572</v>
+        <v>1.887194643542861</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.232427870526843</v>
+        <v>1.152458102857732</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.3861811684506885</v>
+        <v>0.571820212115545</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2792423161234185</v>
+        <v>0.3597827060496246</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.153332813696397</v>
+        <v>1.118478589936004</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.360073600142674</v>
+        <v>1.449347464256375</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.376022562609621</v>
+        <v>1.420568509184602</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.96165281007264</v>
+        <v>2.907513133590931</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.031808288957524</v>
+        <v>3.885494740757761</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.263838150805756</v>
+        <v>4.213389544935191</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.59943848249993</v>
+        <v>3.798312811881881</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.031488745503852</v>
+        <v>3.091330718722785</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.279528799968997</v>
+        <v>2.489894151576123</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.948939656697881</v>
+        <v>3.000460500659711</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.182108666353801</v>
+        <v>3.263884872679983</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.91307011796451</v>
+        <v>2.959434149381495</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>0.38764470067052</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.376553297516064</v>
+        <v>0.3765532975160642</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.07657901634389355</v>
+        <v>0.08399916279151809</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.2481980065531033</v>
+        <v>0.2254297874607238</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.3307739734113105</v>
+        <v>0.3006272271708457</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1825750130277546</v>
+        <v>0.1773128696656255</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.05978972414212593</v>
+        <v>0.08532177381509028</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04117563161697927</v>
+        <v>0.05252169537233085</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1811873615420612</v>
+        <v>0.1757222305566409</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2178656920236383</v>
+        <v>0.2295387648919065</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.2165754794159862</v>
+        <v>0.2156695088702203</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.587390804046185</v>
+        <v>0.5655035097794426</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.7782743413639595</v>
+        <v>0.7617214764297999</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.8379340267429265</v>
+        <v>0.844915137777476</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.6617286857953925</v>
+        <v>0.6996592478309461</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.5505619542916705</v>
+        <v>0.5633970513118035</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4126456834366962</v>
+        <v>0.4605376087585222</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.540877702318884</v>
+        <v>0.5608862549269228</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6000604165947373</v>
+        <v>0.5983318140803778</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.544908691179282</v>
+        <v>0.5446680563469308</v>
       </c>
     </row>
     <row r="34">
